--- a/three snails/woniuboss2.5_UI/woniuboss_zy/testdata/woniuboss_test_cases.xlsx
+++ b/three snails/woniuboss2.5_UI/woniuboss_zy/testdata/woniuboss_test_cases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="136">
   <si>
     <t>用例编号</t>
   </si>
@@ -1435,17 +1435,10 @@
     <t>mock_interview_002</t>
   </si>
   <si>
-    <t>mock_interview_003</t>
-  </si>
-  <si>
     <t>mock_interview_004</t>
   </si>
   <si>
     <t>不填写备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式错误的期望薪资</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1476,43 +1469,6 @@
   </si>
   <si>
     <r>
-      <t>salary=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-mremark=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注内容</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>salary=10000
 mremark=</t>
     </r>
@@ -1533,10 +1489,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>mock_fail</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>mock_success</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1627,6 +1579,62 @@
   </si>
   <si>
     <t>输入正确的姓名，错误的学号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_name_003</t>
+  </si>
+  <si>
+    <t>输入错误的姓名，正确的学号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_name_004</t>
+  </si>
+  <si>
+    <t>search_name_005</t>
+  </si>
+  <si>
+    <t>只输入正确的姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入正确的学号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">付文攀
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stu_no=</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>query-success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>query-fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1684,13 +1692,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>search_name_003</t>
-  </si>
-  <si>
-    <t>输入错误的姓名，正确的学号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>name=234</t>
     </r>
@@ -1718,20 +1719,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>search_name_004</t>
-  </si>
-  <si>
-    <t>search_name_005</t>
-  </si>
-  <si>
-    <t>只输入正确的姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入正确的学号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>name=</t>
     </r>
@@ -1743,33 +1730,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">付文攀
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>stu_no=</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1783,14 +1743,6 @@
       </rPr>
       <t>stu_no=WNCD201706020</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>query-success</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>query-fail</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2279,7 +2231,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2343,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2458,44 +2410,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2512,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2676,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2735,10 +2687,10 @@
         <v>66</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2752,7 +2704,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2766,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2846,10 +2798,10 @@
         <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2857,13 +2809,13 @@
         <v>94</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2871,99 +2823,86 @@
         <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="D13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="D14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
